--- a/output/ADAM_29286406000164.xlsx
+++ b/output/ADAM_29286406000164.xlsx
@@ -768,10 +768,10 @@
         <v>44165</v>
       </c>
       <c r="B35">
-        <v>0.05696043999999989</v>
+        <v>0.0544207000000001</v>
       </c>
       <c r="C35">
-        <v>0.01876710571099993</v>
+        <v>0.01631913938119278</v>
       </c>
     </row>
   </sheetData>

--- a/output/ADAM_29286406000164.xlsx
+++ b/output/ADAM_29286406000164.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADAM MACRO STRATEGY II D60 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,392 +383,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43159</v>
       </c>
       <c r="B2">
-        <v>-0.0001133700000000015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43190</v>
       </c>
       <c r="B3">
-        <v>-0.02948128000000005</v>
-      </c>
-      <c r="C3">
         <v>-0.02937123981745815</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43220</v>
       </c>
       <c r="B4">
-        <v>-0.01079934999999999</v>
-      </c>
-      <c r="C4">
         <v>0.01924942776992511</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43251</v>
       </c>
       <c r="B5">
-        <v>-0.01901801999999997</v>
-      </c>
-      <c r="C5">
         <v>-0.008308395268442181</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43281</v>
       </c>
       <c r="B6">
-        <v>-0.04404178000000003</v>
-      </c>
-      <c r="C6">
         <v>-0.02550888855267253</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43312</v>
       </c>
       <c r="B7">
-        <v>-0.03307453000000005</v>
-      </c>
-      <c r="C7">
         <v>0.01147252021118672</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43343</v>
       </c>
       <c r="B8">
-        <v>-0.03273007999999999</v>
-      </c>
-      <c r="C8">
         <v>0.0003562322130163942</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43373</v>
       </c>
       <c r="B9">
-        <v>-0.03266837</v>
-      </c>
-      <c r="C9">
         <v>6.379811748935538e-05</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43404</v>
       </c>
       <c r="B10">
-        <v>-0.02315730999999999</v>
-      </c>
-      <c r="C10">
         <v>0.009832264039582705</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43434</v>
       </c>
       <c r="B11">
-        <v>-0.01926298000000004</v>
-      </c>
-      <c r="C11">
         <v>0.003986650092042909</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43465</v>
       </c>
       <c r="B12">
-        <v>-0.01472150000000005</v>
-      </c>
-      <c r="C12">
         <v>0.004630680709901247</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43496</v>
       </c>
       <c r="B13">
-        <v>-0.006165129999999963</v>
-      </c>
-      <c r="C13">
         <v>0.008684214666208723</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43524</v>
       </c>
       <c r="B14">
-        <v>-0.00629871999999998</v>
-      </c>
-      <c r="C14">
         <v>-0.0001344187088142546</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43555</v>
       </c>
       <c r="B15">
-        <v>0.0007949199999999212</v>
-      </c>
-      <c r="C15">
         <v>0.007138604068216425</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43585</v>
       </c>
       <c r="B16">
-        <v>0.009388720000000017</v>
-      </c>
-      <c r="C16">
         <v>0.00858697404259412</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43616</v>
       </c>
       <c r="B17">
-        <v>0.02532906999999995</v>
-      </c>
-      <c r="C17">
         <v>0.01579208255863995</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43646</v>
       </c>
       <c r="B18">
-        <v>0.01096977999999993</v>
-      </c>
-      <c r="C18">
         <v>-0.01400456733368538</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43677</v>
       </c>
       <c r="B19">
-        <v>0.008608219999999944</v>
-      </c>
-      <c r="C19">
         <v>-0.00233593530362497</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43708</v>
       </c>
       <c r="B20">
-        <v>0.03147509999999998</v>
-      </c>
-      <c r="C20">
         <v>0.02267171687337632</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43738</v>
       </c>
       <c r="B21">
-        <v>0.02786468999999991</v>
-      </c>
-      <c r="C21">
         <v>-0.0035002396083047</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43769</v>
       </c>
       <c r="B22">
-        <v>0.02534787999999999</v>
-      </c>
-      <c r="C22">
         <v>-0.002448581048153264</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43799</v>
       </c>
       <c r="B23">
-        <v>0.02444610999999997</v>
-      </c>
-      <c r="C23">
         <v>-0.0008794771195118622</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43830</v>
       </c>
       <c r="B24">
-        <v>0.01691171000000002</v>
-      </c>
-      <c r="C24">
         <v>-0.007354608433234211</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43861</v>
       </c>
       <c r="B25">
-        <v>0.03461567999999993</v>
-      </c>
-      <c r="C25">
         <v>0.01740954482665935</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43890</v>
       </c>
       <c r="B26">
-        <v>0.04955493</v>
-      </c>
-      <c r="C26">
         <v>0.01443941966934048</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43921</v>
       </c>
       <c r="B27">
-        <v>0.06754609</v>
-      </c>
-      <c r="C27">
         <v>0.01714170405545135</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43951</v>
       </c>
       <c r="B28">
-        <v>0.06640974000000011</v>
-      </c>
-      <c r="C28">
         <v>-0.001064450528782235</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43982</v>
       </c>
       <c r="B29">
-        <v>0.07064621999999998</v>
-      </c>
-      <c r="C29">
         <v>0.003972656888898918</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44012</v>
       </c>
       <c r="B30">
-        <v>0.06169271999999992</v>
-      </c>
-      <c r="C30">
         <v>-0.008362706403614917</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44043</v>
       </c>
       <c r="B31">
-        <v>0.06427983000000004</v>
-      </c>
-      <c r="C31">
         <v>0.002436778505931603</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44074</v>
       </c>
       <c r="B32">
-        <v>0.05352658999999993</v>
-      </c>
-      <c r="C32">
         <v>-0.01010377129856921</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44104</v>
       </c>
       <c r="B33">
-        <v>0.03148478999999993</v>
-      </c>
-      <c r="C33">
         <v>-0.02092192091706013</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44135</v>
       </c>
       <c r="B34">
-        <v>0.03748975999999993</v>
-      </c>
-      <c r="C34">
         <v>0.005821675761210177</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44165</v>
       </c>
       <c r="B35">
-        <v>0.0544207000000001</v>
-      </c>
-      <c r="C35">
-        <v>0.01631913938119278</v>
+        <v>0.01344059530765884</v>
       </c>
     </row>
   </sheetData>
